--- a/dados/catalogo.xlsx
+++ b/dados/catalogo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cauac\OneDrive\Área de Trabalho\FUJI\Gerenciamento de Estoque\FujiStock\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749BD874-AFCF-4128-AAAF-5213F090C5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29A22F6-35B1-4BFB-84FA-CBF4B64D6BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="151">
   <si>
     <t>Bebidas Não Alcoólicas</t>
   </si>
   <si>
-    <t>Insumo</t>
-  </si>
-  <si>
     <t>Cápsula para creme chantili</t>
   </si>
   <si>
@@ -43,9 +40,6 @@
     <t>Cápsula de café - (10 em cada caixa)</t>
   </si>
   <si>
-    <t>Licores e Aperitivos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Monin de limão siciliano - 700ml </t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t xml:space="preserve">Monin de tangerina - 700ml </t>
   </si>
   <si>
-    <t>Sake</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sake seco Azuma dourado - 740ml </t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t xml:space="preserve">Sake Gekkeikan - 750ml </t>
   </si>
   <si>
-    <t>Vinhos e Espumantes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Freixenet Premium Cava - 750ml </t>
   </si>
   <si>
@@ -289,9 +277,6 @@
     <t>Quinta do Morgado Brut - 750ml</t>
   </si>
   <si>
-    <t>Cerveja</t>
-  </si>
-  <si>
     <t>Heineken - 330ml</t>
   </si>
   <si>
@@ -331,9 +316,6 @@
     <t>Água Perrier- 330ml</t>
   </si>
   <si>
-    <t>Carnes e Embutidos</t>
-  </si>
-  <si>
     <t>Filé de peito de frango</t>
   </si>
   <si>
@@ -343,9 +325,6 @@
     <t>Bacon fateado</t>
   </si>
   <si>
-    <t>Pães e Massas</t>
-  </si>
-  <si>
     <t>Mini bao</t>
   </si>
   <si>
@@ -358,9 +337,6 @@
     <t>Ossada</t>
   </si>
   <si>
-    <t>Vegetais</t>
-  </si>
-  <si>
     <t>Brócolis</t>
   </si>
   <si>
@@ -394,9 +370,6 @@
     <t>Polpa de cajá - 500g</t>
   </si>
   <si>
-    <t>Frutos do Mar</t>
-  </si>
-  <si>
     <t>Ovas de peixe vermelho</t>
   </si>
   <si>
@@ -421,9 +394,6 @@
     <t>Camarão grande</t>
   </si>
   <si>
-    <t>Laticínios</t>
-  </si>
-  <si>
     <t>Cream cheese - 1 kg</t>
   </si>
   <si>
@@ -497,6 +467,18 @@
   </si>
   <si>
     <t>INDAIA BRASIL AGUAS MINERAIS LTDA</t>
+  </si>
+  <si>
+    <t>Vinhos &amp; Espumantes</t>
+  </si>
+  <si>
+    <t>Licores &amp; Aperitivos</t>
+  </si>
+  <si>
+    <t>Carnes &amp; Frutos do Mar</t>
+  </si>
+  <si>
+    <t>Sobremesas &amp; Insumos</t>
   </si>
 </sst>
 </file>
@@ -816,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,35 +811,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -865,1044 +847,1044 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" t="s">
         <v>101</v>
       </c>
-      <c r="B16" t="s">
-        <v>108</v>
-      </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
         <v>21</v>
       </c>
-      <c r="B56" t="s">
-        <v>25</v>
-      </c>
       <c r="C56" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C64" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C66" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" t="s">
         <v>5</v>
       </c>
-      <c r="B73" t="s">
-        <v>7</v>
-      </c>
       <c r="C73" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C76" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B78" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C79" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B80" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C80" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C81" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B82" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C82" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C83" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B84" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B85" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C85" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B86" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C86" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C87" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="B88" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C88" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B89" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C89" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B90" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C90" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B91" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C91" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B92" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C92" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B93" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C93" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="B94" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C94" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="B95" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C95" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="B96" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C96" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="B97" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C97" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B98" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C98" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1910,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C99" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1921,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C100" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1932,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C101" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1943,98 +1925,98 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C102" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103" t="s">
         <v>15</v>
       </c>
-      <c r="B103" t="s">
-        <v>18</v>
-      </c>
       <c r="C103" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B105" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B106" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C106" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B107" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C107" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="B108" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="B109" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C109" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" t="s">
         <v>87</v>
       </c>
-      <c r="B110" t="s">
-        <v>92</v>
-      </c>
       <c r="C110" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2042,54 +2024,54 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C111" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C112" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B113" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C113" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B114" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C114" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B115" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C115" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2097,98 +2079,98 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C116" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C117" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" t="s">
         <v>127</v>
-      </c>
-      <c r="C118" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B119" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C119" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B120" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C120" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B121" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C121" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B122" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C122" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B123" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C123" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C124" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E545FD6-FD22-4EC0-845D-EE4D6EA03ADC}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2216,27 +2198,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B2">
         <v>5856773000198</v>
@@ -2244,7 +2226,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B3">
         <v>4763524000195</v>
@@ -2252,7 +2234,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B4">
         <v>187154000134</v>
@@ -2260,7 +2242,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B5">
         <v>7570682000206</v>
@@ -2268,7 +2250,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B6">
         <v>48785000172</v>

--- a/dados/catalogo.xlsx
+++ b/dados/catalogo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cauac\OneDrive\Área de Trabalho\FUJI\Gerenciamento de Estoque\FujiStock\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29A22F6-35B1-4BFB-84FA-CBF4B64D6BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EB7501-363F-4E02-8A83-D18168B622C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="150">
   <si>
     <t>Bebidas Não Alcoólicas</t>
   </si>
@@ -341,9 +341,6 @@
   </si>
   <si>
     <t>Frango Inteiro</t>
-  </si>
-  <si>
-    <t>Sobremesas e Sorvetes</t>
   </si>
   <si>
     <t>Sorvete de creme - 5L</t>
@@ -798,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="80" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,13 +808,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
         <v>123</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>124</v>
-      </c>
-      <c r="C1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -828,18 +825,18 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,73 +847,73 @@
         <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -927,73 +924,73 @@
         <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
         <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s">
         <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
         <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s">
         <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1004,216 +1001,216 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s">
         <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" t="s">
         <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B25" t="s">
         <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
         <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B30" t="s">
         <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B31" t="s">
         <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32" t="s">
         <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B33" t="s">
         <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s">
         <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
         <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B37" t="s">
         <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1224,128 +1221,128 @@
         <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s">
         <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B41" t="s">
         <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B43" t="s">
         <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B45" t="s">
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B46" t="s">
         <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B47" t="s">
         <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1356,18 +1353,18 @@
         <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B51" t="s">
         <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1378,7 +1375,7 @@
         <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1389,18 +1386,18 @@
         <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B54" t="s">
         <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1411,7 +1408,7 @@
         <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1422,7 +1419,7 @@
         <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1433,7 +1430,7 @@
         <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1444,62 +1441,62 @@
         <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B59" t="s">
         <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B60" t="s">
         <v>49</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B61" t="s">
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B62" t="s">
         <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B63" t="s">
         <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1510,7 +1507,7 @@
         <v>27</v>
       </c>
       <c r="C64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1521,238 +1518,238 @@
         <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B66" t="s">
         <v>99</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B68" t="s">
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B75" t="s">
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B76" t="s">
         <v>24</v>
       </c>
       <c r="C76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B77" t="s">
         <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B78" t="s">
         <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B79" t="s">
         <v>65</v>
       </c>
       <c r="C79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B80" t="s">
         <v>47</v>
       </c>
       <c r="C80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B81" t="s">
         <v>62</v>
       </c>
       <c r="C81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" t="s">
         <v>109</v>
       </c>
-      <c r="B82" t="s">
-        <v>110</v>
-      </c>
       <c r="C82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B83" t="s">
         <v>61</v>
       </c>
       <c r="C83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B84" t="s">
         <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B85" t="s">
         <v>77</v>
       </c>
       <c r="C85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B86" t="s">
         <v>94</v>
       </c>
       <c r="C86" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1763,128 +1760,128 @@
         <v>22</v>
       </c>
       <c r="C87" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B88" t="s">
         <v>102</v>
       </c>
       <c r="C88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B89" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B91" t="s">
         <v>66</v>
       </c>
       <c r="C91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B92" t="s">
         <v>50</v>
       </c>
       <c r="C92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B93" t="s">
         <v>67</v>
       </c>
       <c r="C93" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C96" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B97" t="s">
         <v>76</v>
       </c>
       <c r="C97" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B98" t="s">
         <v>82</v>
       </c>
       <c r="C98" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1892,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C99" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1903,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C100" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1914,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C101" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1925,10 +1922,10 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C102" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1939,7 +1936,7 @@
         <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1950,7 +1947,7 @@
         <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1961,18 +1958,18 @@
         <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B106" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C106" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1983,29 +1980,29 @@
         <v>26</v>
       </c>
       <c r="C107" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C108" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C109" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2016,7 +2013,7 @@
         <v>87</v>
       </c>
       <c r="C110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2027,7 +2024,7 @@
         <v>92</v>
       </c>
       <c r="C111" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2038,40 +2035,40 @@
         <v>86</v>
       </c>
       <c r="C112" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B113" t="s">
         <v>36</v>
       </c>
       <c r="C113" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B114" t="s">
         <v>35</v>
       </c>
       <c r="C114" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B115" t="s">
         <v>37</v>
       </c>
       <c r="C115" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2082,7 +2079,7 @@
         <v>75</v>
       </c>
       <c r="C116" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2093,62 +2090,62 @@
         <v>32</v>
       </c>
       <c r="C117" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B119" t="s">
         <v>42</v>
       </c>
       <c r="C119" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B120" t="s">
         <v>48</v>
       </c>
       <c r="C120" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B121" t="s">
         <v>69</v>
       </c>
       <c r="C121" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B122" t="s">
         <v>93</v>
       </c>
       <c r="C122" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2159,7 +2156,7 @@
         <v>34</v>
       </c>
       <c r="C123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2170,7 +2167,7 @@
         <v>33</v>
       </c>
       <c r="C124" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2198,27 +2195,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
         <v>136</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>137</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>138</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>139</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>140</v>
-      </c>
-      <c r="F1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2">
         <v>5856773000198</v>
@@ -2226,7 +2223,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3">
         <v>4763524000195</v>
@@ -2234,7 +2231,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4">
         <v>187154000134</v>
@@ -2242,7 +2239,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5">
         <v>7570682000206</v>
@@ -2250,7 +2247,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6">
         <v>48785000172</v>
